--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1439885988106882</v>
+        <v>-0.09347130405523991</v>
       </c>
       <c r="C2">
-        <v>1.248489146476016</v>
+        <v>1.163400873526787</v>
       </c>
       <c r="D2">
-        <v>6.31770116813468</v>
+        <v>8.140377539043413</v>
       </c>
       <c r="E2">
-        <v>2.513503763302271</v>
+        <v>2.853134686453378</v>
       </c>
       <c r="F2">
-        <v>2.537731540352636</v>
+        <v>2.883113556558969</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0583458529477501</v>
+        <v>0.02024706560588739</v>
       </c>
       <c r="C3">
-        <v>0.9297453665892437</v>
+        <v>1.092969939287157</v>
       </c>
       <c r="D3">
-        <v>4.461274890262548</v>
+        <v>5.366131528809891</v>
       </c>
       <c r="E3">
-        <v>2.112173025645046</v>
+        <v>2.31649121060493</v>
       </c>
       <c r="F3">
-        <v>2.135776688282542</v>
+        <v>2.342577598071925</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02019075778939697</v>
+        <v>-0.03266126848104425</v>
       </c>
       <c r="C4">
-        <v>1.03102594170394</v>
+        <v>0.9435118373712057</v>
       </c>
       <c r="D4">
-        <v>5.109095061031896</v>
+        <v>4.478804720633087</v>
       </c>
       <c r="E4">
-        <v>2.260330741513705</v>
+        <v>2.116318671805616</v>
       </c>
       <c r="F4">
-        <v>2.286989901263786</v>
+        <v>2.14053063588333</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04746492053895496</v>
+        <v>0.07925189262698597</v>
       </c>
       <c r="C5">
-        <v>0.9623401454281738</v>
+        <v>1.009367654643358</v>
       </c>
       <c r="D5">
-        <v>4.458953011248473</v>
+        <v>4.81238600652716</v>
       </c>
       <c r="E5">
-        <v>2.111623311873704</v>
+        <v>2.193715115170418</v>
       </c>
       <c r="F5">
-        <v>2.136679689336805</v>
+        <v>2.218228171063641</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07320768859375451</v>
+        <v>0.02771576539098436</v>
       </c>
       <c r="C6">
-        <v>1.022662278643431</v>
+        <v>0.9479935622673827</v>
       </c>
       <c r="D6">
-        <v>4.557510368176624</v>
+        <v>4.345380084005096</v>
       </c>
       <c r="E6">
-        <v>2.134832632357072</v>
+        <v>2.084557527151768</v>
       </c>
       <c r="F6">
-        <v>2.160082122876366</v>
+        <v>2.109639321010291</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06326911481266312</v>
+        <v>0.1037329126159212</v>
       </c>
       <c r="C7">
-        <v>0.9663739784444528</v>
+        <v>0.9868912652243453</v>
       </c>
       <c r="D7">
-        <v>4.534778155801427</v>
+        <v>4.448777381052547</v>
       </c>
       <c r="E7">
-        <v>2.129501856256864</v>
+        <v>2.109212502583025</v>
       </c>
       <c r="F7">
-        <v>2.155678291709108</v>
+        <v>2.132830815017939</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1033659209183173</v>
+        <v>0.06410150100714884</v>
       </c>
       <c r="C8">
-        <v>1.03022098842567</v>
+        <v>0.9537641320944577</v>
       </c>
       <c r="D8">
-        <v>4.602463859476233</v>
+        <v>4.474893186289131</v>
       </c>
       <c r="E8">
-        <v>2.145335372261464</v>
+        <v>2.115394333520143</v>
       </c>
       <c r="F8">
-        <v>2.170855970451389</v>
+        <v>2.141359305616774</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.08207111258637427</v>
+        <v>0.1191595648948872</v>
       </c>
       <c r="C9">
-        <v>0.9862278241709541</v>
+        <v>1.014371866898358</v>
       </c>
       <c r="D9">
-        <v>4.628025629660478</v>
+        <v>4.568013714778091</v>
       </c>
       <c r="E9">
-        <v>2.151284646359119</v>
+        <v>2.137291209633842</v>
       </c>
       <c r="F9">
-        <v>2.178575151525827</v>
+        <v>2.16186307201873</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1083220473266136</v>
+        <v>0.08350116669570022</v>
       </c>
       <c r="C10">
-        <v>1.008647152485286</v>
+        <v>0.9748485792014643</v>
       </c>
       <c r="D10">
-        <v>4.73161871411003</v>
+        <v>4.600399335576155</v>
       </c>
       <c r="E10">
-        <v>2.175228428030038</v>
+        <v>2.14485415251857</v>
       </c>
       <c r="F10">
-        <v>2.202496984374283</v>
+        <v>2.171997597480076</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01548952251635581</v>
+        <v>0.116349882878518</v>
       </c>
       <c r="C11">
-        <v>0.8991840780165133</v>
+        <v>1.0065703756427</v>
       </c>
       <c r="D11">
-        <v>4.592066905521687</v>
+        <v>4.725732831804032</v>
       </c>
       <c r="E11">
-        <v>2.142910848710624</v>
+        <v>2.173875072722449</v>
       </c>
       <c r="F11">
-        <v>2.173251489540831</v>
+        <v>2.200702128189578</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
